--- a/tables/appendix key.xlsx
+++ b/tables/appendix key.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorroucogonzalez/projects/IPIP_git/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFCA715-FC62-3349-899F-98730BA95A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="6340" yWindow="2560" windowWidth="24440" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,438 +27,438 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
-    <t xml:space="preserve">Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agreeableness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1: Appreciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I acknowledge others’ accomplishments.
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Facet</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>A1: Appreciation</t>
+  </si>
+  <si>
+    <t>I acknowledge others’ accomplishments.
 I respect others’ feelings.
 I respect others.
 I am a good listener.
 I am polite to strangers.</t>
   </si>
   <si>
-    <t xml:space="preserve">A2: Integrity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I speak ill of others. (-)
+    <t>A2: Integrity</t>
+  </si>
+  <si>
+    <t>I speak ill of others. (-)
 I insult people. (-)
 I do things out of revenge. (-)
 I misuse power. (-)
 I try to avoid doing favors for others. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">A3: Low competitiveness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I would like to have more power than other people. (-)
+    <t>A3: Low competitiveness</t>
+  </si>
+  <si>
+    <t>I would like to have more power than other people. (-)
 I want to control the conversation. (-)
 I tend to brag about my accomplishments. (-)
 I want to be told I am right. (-)
 I see other people as my competitors. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">A4: Readiness to give feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to be liked.
+    <t>A4: Readiness to give feedback</t>
+  </si>
+  <si>
+    <t>I want to be liked.
 I do what others want me to do.
 I change myself to suit others.
 I am afraid of providing criticism.
 I find it necessary to please the people who have power.</t>
   </si>
   <si>
-    <t xml:space="preserve">A5: Search for support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I show my sadness.
+    <t>A5: Search for support</t>
+  </si>
+  <si>
+    <t>I show my sadness.
 I show my fear.
 I show my anger.
 I tend to complain.
 I seek support.</t>
   </si>
   <si>
-    <t xml:space="preserve">A6: Good faith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I trust what people say.
+    <t>A6: Good faith</t>
+  </si>
+  <si>
+    <t>I trust what people say.
 I trust others.
 I believe that others have good intentions.
 I am good at working with a group.
 I feel like a loser if I compromise. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">A7: Genuineness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I lie to get myself out of trouble. (-)
+    <t>A7: Genuineness</t>
+  </si>
+  <si>
+    <t>I lie to get myself out of trouble. (-)
 I respect authority.
 I try to fool others. (-)
 I find it easy to manipulate others. (-)
 I use flattery to get ahead. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">A8: Altruism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think of others first.
+    <t>A8: Altruism</t>
+  </si>
+  <si>
+    <t>I think of others first.
 I let other people take the credit for my work.
 I try to respond with understanding when someone treats me badly.
 I return extra change when a cashier makes a mistake.</t>
   </si>
   <si>
-    <t xml:space="preserve">Conscientiousness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1: Dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to be in charge.
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>C1: Dominance</t>
+  </si>
+  <si>
+    <t>I want to be in charge.
 I try to lead others.
 I demand perfection in others.
 I resist authority.
 I try to outdo others.</t>
   </si>
   <si>
-    <t xml:space="preserve">C2: Persistence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I give up easily. (-)
+    <t>C2: Persistence</t>
+  </si>
+  <si>
+    <t>I give up easily. (-)
 I never give up.
 I am easily discouraged. (-)
 I like to take my time. (-)
 My interests change quickly. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">C3: Self-discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am easily talked into doing silly things. (-)
+    <t>C3: Self-discipline</t>
+  </si>
+  <si>
+    <t>I am easily talked into doing silly things. (-)
 I rush into things. (-)
 I act impulsively when something is bothering me. (-)
 I am easily distracted. (-)
 I say inappropriate things. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">C4: Task planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do things according to a plan.
+    <t>C4: Task planning</t>
+  </si>
+  <si>
+    <t>I do things according to a plan.
 I follow a schedule.
 I make plans and stick to them.
 I want things to proceed according to plan.
 I am always prepared.</t>
   </si>
   <si>
-    <t xml:space="preserve">C5: Goal orientation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I accomplish a lot of work.
+    <t>C5: Goal orientation</t>
+  </si>
+  <si>
+    <t>I accomplish a lot of work.
 I work hard.
 I put little time and effort into my work. (-)
 I am a goal-oriented person.
 I carry out my plans.</t>
   </si>
   <si>
-    <t xml:space="preserve">C6: Carefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I choose my words with care.
+    <t>C6: Carefulness</t>
+  </si>
+  <si>
+    <t>I choose my words with care.
 I look at the facts.
 I make careful choices.
 I avoid mistakes.
 I take precautions.</t>
   </si>
   <si>
-    <t xml:space="preserve">C7: Orderliness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I leave a mess in my room. (-)
+    <t>C7: Orderliness</t>
+  </si>
+  <si>
+    <t>I leave a mess in my room. (-)
 I often forget to put things back in their proper place. (-)
 I am continually losing things. (-)
 I can never find anything. (-)
 I make a mess of things. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">C8: Wish to work to capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I work too much.
+    <t>C8: Wish to work to capacity</t>
+  </si>
+  <si>
+    <t>I work too much.
 I have extra time on my hands. (-)
 I am always busy.
 I have too many things to do.
 I am exacting in my work.</t>
   </si>
   <si>
-    <t xml:space="preserve">C9: Productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I can manage many things at the same time.
+    <t>C9: Productivity</t>
+  </si>
+  <si>
+    <t>I can manage many things at the same time.
 I start tasks right away.
 I can`t wait to get started on a project.
 I finish tasks quickly.
 I stop when work becomes too difficult.</t>
   </si>
   <si>
-    <t xml:space="preserve">Extraversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1: Sociability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am quiet around strangers. (-)
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>E1: Sociability</t>
+  </si>
+  <si>
+    <t>I am quiet around strangers. (-)
 I start conversations.
 I feel comfortable only with friends. (-)
 I feel comfortable around people.
 I have difficulty showing affection. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">E2: Readiness to take risks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I seek danger.
+    <t>E2: Readiness to take risks</t>
+  </si>
+  <si>
+    <t>I seek danger.
 I enjoy being reckless.
 I avoid dangerous situations. (-)
 I act wild and crazy.
 I like loud music.</t>
   </si>
   <si>
-    <t xml:space="preserve">E3: Wish for affiliation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I prefer to be alone. (-)
+    <t>E3: Wish for affiliation</t>
+  </si>
+  <si>
+    <t>I prefer to be alone. (-)
 I enjoy spending time by myself. (-)
 I enjoy silence. (-)
 I feel isolated from other people. (-)
 I hold back my opinions. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">E4: Positive attitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I look forward to each new day.
+    <t>E4: Positive attitude</t>
+  </si>
+  <si>
+    <t>I look forward to each new day.
 I look at the bright side of life.
 I love life.
 I laugh a lot.
 I feel lucky most of the time.</t>
   </si>
   <si>
-    <t xml:space="preserve">E5: Forcefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I automatically take charge.
+    <t>E5: Forcefulness</t>
+  </si>
+  <si>
+    <t>I automatically take charge.
 I do most of the talking.
 I know how to convince others.
 I like having authority over others.
 I challenge others’ points of view.</t>
   </si>
   <si>
-    <t xml:space="preserve">E6: Communicativeness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I talk a lot.
+    <t>E6: Communicativeness</t>
+  </si>
+  <si>
+    <t>I talk a lot.
 I like talking about myself.
 I easily share my feelings with others.
 I love to chat.
 I disclose my intimate thoughts.</t>
   </si>
   <si>
-    <t xml:space="preserve">E7: Humor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am known for my sense of humor.
+    <t>E7: Humor</t>
+  </si>
+  <si>
+    <t>I am known for my sense of humor.
 I try to add some humor to whatever I do.
 I like to amuse others.
 I try to tease my friends out of their gloomy moods.
 I amuse myself easily.</t>
   </si>
   <si>
-    <t xml:space="preserve">E8: Conviviality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I enjoy being part of a group.
+    <t>E8: Conviviality</t>
+  </si>
+  <si>
+    <t>I enjoy being part of a group.
 I enjoy teamwork.
 I am good at planning group activities.
 I would enjoy a lot of social interaction.
 I am good at getting people to like me.</t>
   </si>
   <si>
-    <t xml:space="preserve">E9: Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I maintain high energy throughout the day.
+    <t>E9: Energy</t>
+  </si>
+  <si>
+    <t>I maintain high energy throughout the day.
 I tire out quickly. (-)
 I am usually active and full of energy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Neuroticism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1: Equanimity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I get angry easily. (-)
+    <t>Neuroticism</t>
+  </si>
+  <si>
+    <t>N1: Equanimity</t>
+  </si>
+  <si>
+    <t>I get angry easily. (-)
 I snap at people. (-)
 I get annoyed at the slightest provocation. (-)
 I shout or scream when I'm angry. (-)
 I get upset if others change the way that I have arranged things. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">N2: Confidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I feel sad. (-)
+    <t>N2: Confidence</t>
+  </si>
+  <si>
+    <t>I feel sad. (-)
 I think my life is a failure. (-)
 I have a dark outlook on the future. (-)
 I feel lonely. (-)
 I feel desperate. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">N3: Carefreeness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I worry a lot. (-)
+    <t>N3: Carefreeness</t>
+  </si>
+  <si>
+    <t>I worry a lot. (-)
 I often feel tense. (-)
 I am filled with doubts about things. (-)
 I worry about what people think of me. (-)
 I feel fearful. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">N4: Mental balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I remain calm under pressure.
+    <t>N4: Mental balance</t>
+  </si>
+  <si>
+    <t>I remain calm under pressure.
 I can handle stress well.
 I face danger confidently.
 I readily overcome setbacks.
 I adapt easily to new situations.</t>
   </si>
   <si>
-    <t xml:space="preserve">N5: Drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I feel it hard to get going. (-)
+    <t>N5: Drive</t>
+  </si>
+  <si>
+    <t>I feel it hard to get going. (-)
 I hardly know where my life is going. (-)
 I give up easily. (-)
 I let others discourage me. (-)
 I never spend more than I can afford. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">N6: Emotional robustness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I cry easily. (-)
+    <t>N6: Emotional robustness</t>
+  </si>
+  <si>
+    <t>I cry easily. (-)
 I get overwhelmed by emotions. (-)
 I need protection. (-)
 I am easily hurt. (-)
 I immediately feel sad when hearing of an unhappy event. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">N7: Self-attention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I need the approval of others. (-)
+    <t>N7: Self-attention</t>
+  </si>
+  <si>
+    <t>I need the approval of others. (-)
 I am preoccupied with myself. (-)
 I feel threatened easily. (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">Openness to experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O1: Creativity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I do unexpected things.
+    <t>Openness to experience</t>
+  </si>
+  <si>
+    <t>O1: Creativity</t>
+  </si>
+  <si>
+    <t>I do unexpected things.
 I know that my ideas sometimes surprise people.
 I pride myself on being original.
 I ask questions that nobody else does.
 I love to think up new ways of doing things.</t>
   </si>
   <si>
-    <t xml:space="preserve">O2: Wish for variety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I like to visit new places.
+    <t>O2: Wish for variety</t>
+  </si>
+  <si>
+    <t>I like to visit new places.
 I like to travel.
 I am excited by many different activities.
 I have been creative during the last year.
 I like concerts.</t>
   </si>
   <si>
-    <t xml:space="preserve">O3: Open-mindedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am valued by my friends for my good judgment.
+    <t>O3: Open-mindedness</t>
+  </si>
+  <si>
+    <t>I am valued by my friends for my good judgment.
 I am valued by others for my objectivity.
 I know how to apply my knowledge.
 I can see different points of view.
 I come up with alternatives.</t>
   </si>
   <si>
-    <t xml:space="preserve">O4: Interest in reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I read a lot.
+    <t>O4: Interest in reading</t>
+  </si>
+  <si>
+    <t>I read a lot.
 I like to read.
 I enjoy discussing books with others.
 I have read the great literary classics.
 I enjoy reading nonfiction.</t>
   </si>
   <si>
-    <t xml:space="preserve">O5: Artistic interests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I appreciate all forms of art.
+    <t>O5: Artistic interests</t>
+  </si>
+  <si>
+    <t>I appreciate all forms of art.
 I like art.
 I like poetry.
 I seldom notice the emotional aspects of paintings and pictures. (-)
 I like to visit museums.</t>
   </si>
   <si>
-    <t xml:space="preserve">O6: Wish to analyze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I tend to analyze things.
+    <t>O6: Wish to analyze</t>
+  </si>
+  <si>
+    <t>I tend to analyze things.
 I like to speculate about things.
 I seek explanations of things.
 I love to reflect on things.
 I try to understand myself.</t>
   </si>
   <si>
-    <t xml:space="preserve">O7: Willingness to learn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to increase my knowledge.
+    <t>O7: Willingness to learn</t>
+  </si>
+  <si>
+    <t>I want to increase my knowledge.
 I look forward to the opportunity to learn and grow.
 I find the world a very interesting place.
 I dislike learning. (-)
 I am thrilled when I learn something new.</t>
   </si>
   <si>
-    <t xml:space="preserve">O8: Sensitivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am open about my feelings.
+    <t>O8: Sensitivity</t>
+  </si>
+  <si>
+    <t>I am open about my feelings.
 I rarely notice my emotional reactions. (-)
 I find it hard to understand why people get emotional. (-)
 I am open about myself to others.</t>
   </si>
   <si>
-    <t xml:space="preserve">O9: Intellect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I learn quickly.
+    <t>O9: Intellect</t>
+  </si>
+  <si>
+    <t>I learn quickly.
 I am quick to understand things.
 I can handle a lot of information.</t>
   </si>
@@ -461,30 +466,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -501,107 +488,374 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="2" width="11.5"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -623,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -632,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="356" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -641,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -650,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -659,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -668,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -677,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -686,7 +940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -697,7 +951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -706,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>25</v>
@@ -715,7 +969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>27</v>
@@ -724,7 +978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>29</v>
@@ -733,7 +987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>31</v>
@@ -742,7 +996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>33</v>
@@ -751,7 +1005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
@@ -760,7 +1014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>37</v>
@@ -769,7 +1023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -780,7 +1034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>42</v>
@@ -789,7 +1043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>44</v>
@@ -798,7 +1052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>46</v>
@@ -807,7 +1061,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>48</v>
@@ -816,7 +1070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>50</v>
@@ -825,7 +1079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>52</v>
@@ -834,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="289" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -843,7 +1097,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>56</v>
@@ -852,7 +1106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="340" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -863,7 +1117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>61</v>
@@ -872,7 +1126,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>63</v>
@@ -881,7 +1135,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>65</v>
@@ -890,7 +1144,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>67</v>
@@ -899,7 +1153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="306" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>69</v>
@@ -908,7 +1162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>71</v>
@@ -917,7 +1171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="340" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>73</v>
       </c>
@@ -928,7 +1182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>76</v>
@@ -937,7 +1191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="323" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>78</v>
@@ -946,7 +1200,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="221" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>80</v>
@@ -955,7 +1209,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="238" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>82</v>
@@ -964,7 +1218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>84</v>
@@ -973,7 +1227,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="323" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>86</v>
@@ -982,7 +1236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="289" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>88</v>
@@ -991,7 +1245,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>90</v>
@@ -1001,10 +1255,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
